--- a/config_Release/fish_3d_jackpot_server.xlsx
+++ b/config_Release/fish_3d_jackpot_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="695"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="695" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -19,13 +19,25 @@
     <sheet name="award_pool_limit|奖池限制配置" sheetId="9" r:id="rId5"/>
     <sheet name="award_pool_add|奖池增长配置" sheetId="7" r:id="rId6"/>
     <sheet name="award_pool_bullet|子弹增加值" sheetId="10" r:id="rId7"/>
+    <sheet name="lottery_data|抽奖界面数据" sheetId="11" r:id="rId8"/>
+    <sheet name="lottery_power|抽奖比例权重" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="122">
   <si>
     <t>game_name</t>
   </si>
@@ -93,10 +105,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>no|行号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>id|配置id</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -353,11 +361,93 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>1,2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10</t>
+    <t>0,25919997</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>259200001,359199979</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>25919997,2592000000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>259200001,3591999793</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏宝海湾</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海沉船</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖池总金额 * 系数 * 炮的等级 (1-10)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_day|开启时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>need_min_num|最少需要多少个开启抽奖</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_num|上限</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_num|每周减少多少个</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>|备注</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励单位为：万</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fx_award_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,70</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>70,130</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>130,190</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -365,19 +455,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>0.000000771605,0.00000115741</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.00000661376,0.0000462963</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,25919997</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>259200001,359199979</t>
+    <t>20,20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -385,43 +471,35 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>25919997,2592000000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>259200001,3591999793</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>藏宝海湾</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海沉船</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖池总金额 * 系数 * 炮的等级 (1-10)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,50</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>0,0,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率精度：十亿分之一（小数点后十位）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0000740740,0.0001111111,0.0002222222</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -499,8 +577,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,6 +618,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -557,7 +664,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -615,6 +722,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -895,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -919,13 +1043,13 @@
   <sheetData>
     <row r="1" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -937,25 +1061,25 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
@@ -963,16 +1087,14 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C2" s="3">
         <v>15000000</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="F2" s="8">
         <v>1</v>
@@ -990,13 +1112,13 @@
         <v>260000000</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
@@ -1006,16 +1128,14 @@
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C3" s="3">
         <v>15000000</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="F3" s="8">
         <v>2</v>
@@ -1030,10 +1150,10 @@
         <v>1</v>
       </c>
       <c r="J3" s="8">
-        <v>2600000000</v>
+        <v>1200000000</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -1342,7 +1462,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1372,7 +1492,7 @@
         <v>0.01</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1392,10 +1512,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -1423,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>10</v>
@@ -1434,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1442,15 +1562,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1465,7 +1577,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1474,7 +1586,7 @@
     <col min="2" max="2" width="16.75" style="10" customWidth="1"/>
     <col min="3" max="3" width="38.25" style="10" customWidth="1"/>
     <col min="4" max="4" width="55.375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="34.75" style="10" customWidth="1"/>
+    <col min="5" max="5" width="80" style="10" customWidth="1"/>
     <col min="6" max="6" width="78.5" style="10" customWidth="1"/>
     <col min="7" max="16384" width="11" style="10"/>
   </cols>
@@ -1507,16 +1619,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1527,16 +1639,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1547,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1567,13 +1679,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>91</v>
+        <v>117</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1584,13 +1699,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1601,19 +1716,65 @@
         <v>2</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>93</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>3</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>3</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C10" s="20"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C11" s="17"/>
@@ -1652,7 +1813,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1671,19 +1832,19 @@
         <v>11</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>42</v>
-      </c>
       <c r="F1" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>2</v>
@@ -1703,11 +1864,11 @@
         <v>48</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F2" s="17"/>
       <c r="G2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1725,10 +1886,10 @@
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1745,11 +1906,11 @@
         <v>48</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1767,7 +1928,7 @@
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1801,7 +1962,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1816,19 +1977,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>2</v>
@@ -1842,16 +2003,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" s="17">
         <v>1500</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1862,16 +2023,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" s="17">
         <v>1500</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1882,16 +2043,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" s="17">
         <v>1500</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1902,10 +2063,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" s="17">
         <v>1500</v>
@@ -1919,10 +2080,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="17">
         <v>1500</v>
@@ -1936,10 +2097,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" s="17">
         <v>1500</v>
@@ -1953,10 +2114,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="17">
         <v>1500</v>
@@ -1970,10 +2131,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" s="17">
         <v>1500</v>
@@ -1987,10 +2148,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" s="17">
         <v>1500</v>
@@ -2004,10 +2165,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" s="17">
         <v>1500</v>
@@ -2021,10 +2182,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" s="17">
         <v>1500</v>
@@ -2038,10 +2199,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" s="17">
         <v>1500</v>
@@ -2055,10 +2216,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="17">
         <v>1500</v>
@@ -2072,10 +2233,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" s="17">
         <v>1500</v>
@@ -2089,10 +2250,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="10">
         <v>15000</v>
@@ -2106,10 +2267,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="10">
         <v>15000</v>
@@ -2123,10 +2284,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="10">
         <v>15000</v>
@@ -2140,10 +2301,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" s="10">
         <v>15000</v>
@@ -2157,10 +2318,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" s="10">
         <v>15000</v>
@@ -2174,10 +2335,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" s="10">
         <v>15000</v>
@@ -2191,10 +2352,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" s="10">
         <v>15000</v>
@@ -2208,10 +2369,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="10">
         <v>15000</v>
@@ -2225,10 +2386,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="10">
         <v>15000</v>
@@ -2242,10 +2403,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" s="10">
         <v>15000</v>
@@ -2259,10 +2420,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" s="10">
         <v>15000</v>
@@ -2276,10 +2437,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" s="10">
         <v>15000</v>
@@ -2293,10 +2454,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" s="10">
         <v>15000</v>
@@ -2310,10 +2471,10 @@
         <v>2</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" s="10">
         <v>15000</v>
@@ -2330,7 +2491,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2358,7 +2519,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2386,4 +2547,174 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.75" customWidth="1"/>
+    <col min="3" max="3" width="47.75" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="I16" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26" style="23" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/config_Release/fish_3d_jackpot_server.xlsx
+++ b/config_Release/fish_3d_jackpot_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="695" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="695" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -21,23 +21,14 @@
     <sheet name="award_pool_bullet|子弹增加值" sheetId="10" r:id="rId7"/>
     <sheet name="lottery_data|抽奖界面数据" sheetId="11" r:id="rId8"/>
     <sheet name="lottery_power|抽奖比例权重" sheetId="12" r:id="rId9"/>
+    <sheet name="tg_get_award|机器人获得奖励" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="135">
   <si>
     <t>game_name</t>
   </si>
@@ -493,6 +484,58 @@
   <si>
     <t>1</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_pool_limit|(单位亿)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>interval|间隔(单位小时)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>week_interval|周末抽大奖间隔(单位小时)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1020,7 +1063,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1454,6 +1497,106 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.75" customWidth="1"/>
+    <col min="3" max="3" width="47.75" customWidth="1"/>
+    <col min="4" max="4" width="39.5" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="I16" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2553,8 +2696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2637,7 +2780,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_Release/fish_3d_jackpot_server.xlsx
+++ b/config_Release/fish_3d_jackpot_server.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBEA894-C2E6-4356-9D6D-A4D42559CE38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="695" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="695" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="134">
   <si>
     <t>game_name</t>
   </si>
@@ -490,14 +491,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>interval|间隔(单位小时)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>24</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>100</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -510,38 +503,42 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>12</t>
+    <t>15</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>week_interval|周末抽大奖间隔(单位小时)</t>
+    <t>720</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>24</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>180</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1440</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>interval|间隔(单位分钟)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>week_interval|周末抽大奖间隔(单位分钟)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -787,7 +784,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 4" xfId="1"/>
+    <cellStyle name="常规 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1059,7 +1056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -1501,11 +1498,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1525,10 +1522,10 @@
         <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
@@ -1536,13 +1533,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="11"/>
@@ -1552,13 +1549,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -1567,13 +1564,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
@@ -1581,14 +1578,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>134</v>
-      </c>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="C7" s="12"/>
     </row>
     <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="I16" s="10"/>
@@ -1601,7 +1601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -1654,7 +1654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1716,7 +1716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1952,7 +1952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2101,7 +2101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2630,7 +2630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2693,7 +2693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2776,7 +2776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/config_Release/fish_3d_jackpot_server.xlsx
+++ b/config_Release/fish_3d_jackpot_server.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBEA894-C2E6-4356-9D6D-A4D42559CE38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="695" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="695" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="137">
   <si>
     <t>game_name</t>
   </si>
@@ -507,38 +506,50 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>720</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>180</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1440</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>interval|间隔(单位分钟)</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>week_interval|周末抽大奖间隔(单位分钟)</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -784,7 +795,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 4" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1056,7 +1067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -1498,11 +1509,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1522,10 +1533,10 @@
         <v>122</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
@@ -1539,7 +1550,7 @@
         <v>130</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="11"/>
@@ -1552,10 +1563,10 @@
         <v>123</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -1567,10 +1578,10 @@
         <v>124</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
@@ -1584,7 +1595,7 @@
         <v>129</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="20.25" x14ac:dyDescent="0.2">
@@ -1601,7 +1612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -1654,7 +1665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1716,7 +1727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1952,7 +1963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2101,7 +2112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2630,7 +2641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2693,7 +2704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2776,7 +2787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
